--- a/files/nopCommerce -Test Scenarios .xlsx
+++ b/files/nopCommerce -Test Scenarios .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ענבר\PycharmProjects\test_automation_framework\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8250CB-ABF9-4522-8FEF-267A337522AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017B957-C2D7-4EFB-82DF-381A40684083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18180" yWindow="90" windowWidth="19545" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="495" windowWidth="22860" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>Project Name</t>
   </si>
@@ -230,24 +230,12 @@
     <t>Validate the working of My Orders &gt; 'Product Returns' functionality</t>
   </si>
   <si>
-    <t>Validate the working of My Orders &gt; 'Downloads' functionality</t>
-  </si>
-  <si>
     <t>Validate the working of My Orders &gt; 'Reward Points' functionality</t>
   </si>
   <si>
-    <t>Validate the working of My Orders &gt; 'Returned Requests' functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of My Orders &gt; 'Your Transactions' functionality</t>
-  </si>
-  <si>
     <t>Validate the working of My Orders &gt; 'Recurring Payments' functionality</t>
   </si>
   <si>
-    <t>Validate the working of 'Affiliate' functionality</t>
-  </si>
-  <si>
     <t>Validate the working of 'Newsletter' functionality</t>
   </si>
   <si>
@@ -257,9 +245,6 @@
     <t>Validate the working of 'Gift Certificate' page functionality</t>
   </si>
   <si>
-    <t>Validate the working of 'Speal Offers' page functionality</t>
-  </si>
-  <si>
     <t>Validate the working of 'Header' options, 'Menu' options and 'Footer' options</t>
   </si>
   <si>
@@ -275,6 +260,9 @@
     <t>Validate the working of Checkout functionality</t>
   </si>
   <si>
+    <t>DD-MM-YYYY</t>
+  </si>
+  <si>
     <t>Selenium CI/CD Test Suite</t>
   </si>
   <si>
@@ -290,15 +278,6 @@
     <t>TS_033</t>
   </si>
   <si>
-    <t>TS_034</t>
-  </si>
-  <si>
-    <t>TS_035</t>
-  </si>
-  <si>
-    <t>TS_036</t>
-  </si>
-  <si>
     <t>Validate the responsiveness of the website on different screen sizes</t>
   </si>
   <si>
@@ -312,13 +291,28 @@
   </si>
   <si>
     <t>Validate the integration with payment gateways (PayPal, Stripe, etc.)</t>
+  </si>
+  <si>
+    <t>Validate the working of 'Special Offers' page functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of My Orders &gt; 'Downloadable products' functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of My Orders &gt; 'Back in stock subscriptions' functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of My Orders &gt; 'My product reviews' functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of 'Vendor' functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +360,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -382,7 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -481,53 +482,50 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -812,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -830,55 +828,55 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="18"/>
+      <c r="B2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="18"/>
+      <c r="B3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="18"/>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19">
-        <v>45646</v>
-      </c>
-      <c r="C6" s="20"/>
+      <c r="B6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19">
-        <v>45689</v>
-      </c>
-      <c r="C7" s="20"/>
+      <c r="B7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -898,556 +896,610 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="B24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="12">
         <v>12</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="15" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="12"/>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/files/nopCommerce -Test Scenarios .xlsx
+++ b/files/nopCommerce -Test Scenarios .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ענבר\PycharmProjects\test_automation_framework\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365openu-my.sharepoint.com/personal/keinbar2_365_openu_ac_il/Documents/שולחן העבודה/קבצים/תכנות/QA/Selenium CI.CD Test Suite Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017B957-C2D7-4EFB-82DF-381A40684083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{D194B2E9-E6E0-489B-86BB-2059BCDDDF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4D701FE-B7A1-4A7C-AB66-D2649EC0D8E1}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="495" windowWidth="22860" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16890" yWindow="1455" windowWidth="22860" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>Project Name</t>
   </si>
@@ -227,15 +227,9 @@
     <t>Validate the working of My Orders &gt; 'Order Information' functionality</t>
   </si>
   <si>
-    <t>Validate the working of My Orders &gt; 'Product Returns' functionality</t>
-  </si>
-  <si>
     <t>Validate the working of My Orders &gt; 'Reward Points' functionality</t>
   </si>
   <si>
-    <t>Validate the working of My Orders &gt; 'Recurring Payments' functionality</t>
-  </si>
-  <si>
     <t>Validate the working of 'Newsletter' functionality</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
     <t>FRS</t>
   </si>
   <si>
-    <t>TS_031</t>
-  </si>
-  <si>
     <t>Validate the working of Checkout functionality</t>
   </si>
   <si>
@@ -266,36 +257,15 @@
     <t>Selenium CI/CD Test Suite</t>
   </si>
   <si>
-    <t>Inbar</t>
-  </si>
-  <si>
     <t>nopCommerce</t>
   </si>
   <si>
-    <t>TS_032</t>
-  </si>
-  <si>
-    <t>TS_033</t>
-  </si>
-  <si>
     <t>Validate the responsiveness of the website on different screen sizes</t>
   </si>
   <si>
-    <t>Validate the social media login functionality (e.g., Facebook, Google)</t>
-  </si>
-  <si>
-    <t>Validate the working of promotional banners on the homepage</t>
-  </si>
-  <si>
-    <t>Validate the product sorting functionality (e.g., by price, name)</t>
-  </si>
-  <si>
     <t>Validate the integration with payment gateways (PayPal, Stripe, etc.)</t>
   </si>
   <si>
-    <t>Validate the working of 'Special Offers' page functionality</t>
-  </si>
-  <si>
     <t>Validate the working of My Orders &gt; 'Downloadable products' functionality</t>
   </si>
   <si>
@@ -306,13 +276,16 @@
   </si>
   <si>
     <t>Validate the working of 'Vendor' functionality</t>
+  </si>
+  <si>
+    <t>Inbar .k.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,13 +330,6 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -468,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -482,37 +448,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,6 +468,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -543,6 +491,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,11 +760,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E46"/>
+  <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -828,55 +778,55 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="11"/>
+      <c r="B4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="11"/>
+      <c r="B5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="11"/>
+      <c r="B6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="11"/>
+      <c r="B7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -896,609 +846,513 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="B22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="6">
         <v>18</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="12" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E39" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="12">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="10">
         <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
